--- a/doc/協會系統資料欄位_v1.0_0724.xlsx
+++ b/doc/協會系統資料欄位_v1.0_0724.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7845" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="9615" windowHeight="4665"/>
   </bookViews>
   <sheets>
     <sheet name="欄位規格表清單" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="135">
   <si>
     <t>中文名稱</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -520,7 +520,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>備註：每個資料表第一個欄位都會給 id 欄位，作為識別編號（流水號）</t>
+    <t>老師資料表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社福資料表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任務種類表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入紀錄(前台)表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入紀錄(後台)表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輪播圖資訊表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使單位表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作夥伴表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_teacher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_service</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,9 +759,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,6 +766,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,26 +1076,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
-    <col min="2" max="3" width="19.625" style="1"/>
+    <col min="2" max="2" width="19.625" style="7"/>
+    <col min="3" max="3" width="19.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1067,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1">
+    <row r="3" spans="1:3" ht="21" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1078,7 +1118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1">
+    <row r="4" spans="1:3" ht="21" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1089,71 +1129,140 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="21" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="3" t="s">
+    <row r="13" spans="1:3" ht="21" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="3" t="s">
+    <row r="14" spans="1:3" ht="21" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="21" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="16" spans="1:3" ht="21" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="21" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+    <row r="19" spans="1:4" ht="21" customHeight="1">
+      <c r="B19" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21" customHeight="1">
+      <c r="B20" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21" customHeight="1">
+      <c r="B22" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" location="會員資料表!A1" display="會員資料表"/>
     <hyperlink ref="B4" location="店家資料表!A1" display="店家資料表"/>
-    <hyperlink ref="B5" location="商品資料表!A1" display="商品資料表"/>
-    <hyperlink ref="B6" location="捐贈資料表!A1" display="捐贈資料表"/>
-    <hyperlink ref="B7" location="任務資料表!A1" display="任務資料表"/>
-    <hyperlink ref="B8" location="已接任務資料表!A1" display="已接任務資料表"/>
+    <hyperlink ref="B12" location="商品資料表!A1" display="商品資料表"/>
+    <hyperlink ref="B13" location="捐贈資料表!A1" display="捐贈資料表"/>
+    <hyperlink ref="B15" location="任務資料表!A1" display="任務資料表"/>
+    <hyperlink ref="B17" location="已接任務資料表!A1" display="已接任務資料表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1183,17 +1292,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -1740,17 +1849,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -2770,17 +2879,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3744,7 +3853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -3763,17 +3872,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -4745,17 +4854,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -5681,17 +5790,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1">
       <c r="A2" s="4" t="s">
